--- a/src/main/resources/caseconf/InfoqueryInfoByPii/Case_userinfoqueryInfoByPii.xlsx
+++ b/src/main/resources/caseconf/InfoqueryInfoByPii/Case_userinfoqueryInfoByPii.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Data_Center_Platform/src/main/resources/caseconf/userinfoqueryInfoByPii/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Auto_test/Data_Center_Platform/src/main/resources/caseconf/InfoqueryInfoByPii/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -460,16 +460,6 @@
   </si>
   <si>
     <t>{"resCode":"E0001","resMsg":"系统错误","successful":0,"data":"Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserInfoController.queryByPii(***.web.request.UserInfoPiiRequest): [Field error in object 'userInfoPiiRequest' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoPiiRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoPiiRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into `seraph`.`user_basic_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `status`, `secret_key`, `create_time`, `update_time`) values ( '710887744879529984', '9999', '111111', '1', 'ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVickk4a2pqc2ZCYkFSRExBVmhwa0VQclNXQUhkVnAyVUdBQUFBQUFBQUFBQUNacURacno0T3pENzJtWVRsdUF3cjJKNjNMcDhoVXpENjhKSHo2UEpCODduM2RSczdYUnh2M2pYb2Q0LzR1OGVBOS9uWFRZNU1NYWpOTW9rOXlYbFM0blMyNVM1NFhibnJMMlo1aU1PYW1paGovQnhTNklnbEJvNWNtNUlxRzlLTzgzdXc5dmRiTm4xbE9Jdk9vUmlhQzMvMkcyTWJOZXJOVFl1WDdzZ2l4UWdLZnlHM3czb2oxMnFXR1JiQjBQQlFXZll4SUZDbE5NZkZBRW1OeG5McUNTSVV5dVg3YjI0RU4vVmFiMDhzY1lWRk83Q0kreXlRREJsVjV5NnVGOEt3MG83RjNYb1BvSWdDUzUxbVIvWXEyeSsrQzdCNW5ZMXBSSDhjSHZ0UVhkS3FuZlQ4SW1aeGNCcG1NdGRvQ2p2WWVzVjVFcmxyc3B1M21SSHAxbHJzSXpMbTk1a3FsSGE0QnozTTNhdFUzSFRwZmhoemV1eHRiNTRTSmJjUXQ3MFhVZjV1VklRQTZNY3VTVmVsejJ0YXd0SVZjck9BN2R1STBNRFdDV3V5MDNYUnp1TFFPczlhQS9QUHlwMTJBdlUyNnNHOWxlUnUwVlRUWXhzb3RHSC9VdkFlOE5ZaTkxUT0=', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '9999', '111111', 'name', '王*', 'S1vS3hPCjrE=', 'ac28fbca8a573dacf8566df97ba36e89', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '9999', '111111', 'mobileNo', '189****9090', 'ZjrvanU8xynmJOgqaepUtA==', '545a3ef0c83ca84b3e18cf85c7187d94', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '9999', '111111', 'certNo', '1311**********0909', 'K6wr0kS9Qucy33B+h1v+9129YYhbcehY', 'bbff5c1bc79a9d858b441b8abf54d911', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '9999', '111111', 'email', 'wang***@163.com', 'd8IyCJSIGb91nHFBm7G4aQ==', 'dce6158df0eb228b3148467232b1dcf6', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_index` ( `user_id`, `tenant_id`, `tenant_user_id`, `mobile_no`, `cert_no`, `mobile_no_cert_no`, `cert_no_mobile_no`, `cert_no_name`, `name_cert_no`, `mobile_no_name`, `name_mobile_no`, `create_time`, `update_time`) values ( '710887744879529984', '9999', '111111', 'dca7ac134311d1a7699db2f9d2189350', '9b0658065bae368092d0c75b029f73b2', '27aa7acffc1d7b896f1df246f4cac8fa', '3c2d65e816e5101af47ea06c00dc7750', '4f121e32315573d04be47f23b4c7236f', 'a07e4a85fd185bc8983462c533ecdabf', '0d3a23d2debb04c422a3f7e257dd85e6', 'ff8756693f7f89fdd3aa838c94bef790', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `blood_type`, `religion`, `working_status`, `born_city`, `country`, `province`, `city`, `district`, `street`, `village`, `street_code_rt`, `street_code_rw`, `create_time`, `update_time`, `school`, `degree`, `education`, `education_status`, `marital`, `other_info`) values ( '710887744879529984', '9999', '111111', 'O', '汉族', '在职', '河北', '河北省', '衡水市', '景县', '庙镇','北街', '东王', '街道rt', '街道rw',  '2020-04-17 10:22:54', '2020-04-17 19:05:37', null, null, null, null, null, null);</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -979,10 +969,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1159,7 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>32</v>
@@ -1207,7 +1197,7 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>32</v>
@@ -1226,7 +1216,7 @@
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1245,7 +1235,7 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>32</v>
@@ -1264,7 +1254,7 @@
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -1283,7 +1273,7 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>32</v>
@@ -1302,7 +1292,7 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="12"/>
     </row>

--- a/src/main/resources/caseconf/InfoqueryInfoByPii/Case_userinfoqueryInfoByPii.xlsx
+++ b/src/main/resources/caseconf/InfoqueryInfoByPii/Case_userinfoqueryInfoByPii.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="-9040" yWindow="-28800" windowWidth="51200" windowHeight="28800"/>
   </bookViews>
   <sheets>
     <sheet name="queryInfoByPii" sheetId="2" r:id="rId1"/>
@@ -310,33 +310,6 @@
   </si>
   <si>
     <t>{
-    "resCode":"E0000",
-    "resMsg":"成功",
-    "successful":1,
-    "data":[
-        {
-            "userId":710887744879529984,
-            "tenantId":"9999",
-            "tenantUserId":"111111",
-            "bloodType":"O",
-            "religion":"汉族",
-            "workingStatus":"在职",
-            "bornCity":"河北",
-            "country":"河北省",
-            "province":"衡水市",
-            "city":"景县",
-            "district":"庙镇",
-            "street":"北街",
-            "village":"东王",
-            "streetCodeRt":"街道rt",
-            "streetCodeRw":"街道rw",
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId":"",
 "idcard":"131127199099990909",
 "phone":"18900009090"
@@ -504,6 +477,37 @@
             "village":"东王",
             "streetCodeRt":"街道rt",
             "streetCodeRw":"街道rw",
+            "createTime":"2020-04-17T11:22:54.000+0800",
+            "updateTime":"2020-04-17T20:05:37.000+0800"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode":"E0000",
+    "resMsg":"成功",
+    "successful":1,
+    "data":[
+        {
+            "userId":710887744879529984,
+            "tenantId":"9999",
+            "tenantUserId":"111111",
+            "bloodType":"O",
+            "religion":"汉族",
+            "workingStatus":"在职",
+            "bornCity":"河北",
+            "country":"河北省",
+            "province":"衡水市",
+            "city":"景县",
+            "district":"庙镇",
+            "street":"北街",
+            "village":"东王",
+            "streetCodeRt":"街道rt",
+            "streetCodeRw":"街道rw",
+            "createTime":"2020-04-17T11:22:54.000+0800",
+            "updateTime":"2020-04-17T20:05:37.000+0800"
         }
     ]
 }</t>
@@ -969,10 +973,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1057,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>32</v>
@@ -1072,7 +1076,7 @@
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -1102,11 +1106,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -1136,11 +1140,11 @@
         <v>13</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1152,14 +1156,14 @@
         <v>24</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>32</v>
@@ -1174,11 +1178,11 @@
         <v>13</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1190,14 +1194,14 @@
         <v>25</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>32</v>
@@ -1212,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="17" t="s">
@@ -1222,20 +1226,20 @@
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>32</v>
@@ -1250,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17" t="s">
@@ -1260,20 +1264,20 @@
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>32</v>
@@ -1288,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="17" t="s">
